--- a/x86data/perfmon_data/TMAM_Metrics.xlsx
+++ b/x86data/perfmon_data/TMAM_Metrics.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgundu\Documents\Database\Top down\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TMAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22035" windowHeight="11820"/>
+    <workbookView xWindow="2280" yWindow="810" windowWidth="22380" windowHeight="12885"/>
   </bookViews>
   <sheets>
-    <sheet name="TMAM" sheetId="5" r:id="rId1"/>
-    <sheet name="tree" sheetId="2" r:id="rId2"/>
-    <sheet name="For tool owners" sheetId="4" r:id="rId3"/>
+    <sheet name="public" sheetId="10" r:id="rId1"/>
+    <sheet name="Collateral" sheetId="2" r:id="rId2"/>
+    <sheet name="For tool owners" sheetId="6" r:id="rId3"/>
+    <sheet name="Revision History" sheetId="8" r:id="rId4"/>
+    <sheet name="Copyright" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TMAM!$A$3:$T$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$3:$R$86</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -30,49 +32,6 @@
     <author>ayasin</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yasin, Ahmad:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Info</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> - stats in Keiko tools</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="O3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -100,6 +59,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="P3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yasin, Ahmad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CountDomain applies for most recent models. See Comment for other CountDomain in prior models (if any; should be rare)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R3" authorId="1" shapeId="0">
       <text>
         <r>
@@ -122,13 +105,13 @@
           <t xml:space="preserve">This column indicates threshold or conditions once met; the metric value should be investigated. In such case it is said the metric is "highlighted". 
 For example: "&gt; 0.05 &amp; P"
 means the current metric ratio should be greater than 0.05 AND the Parent threshold has been highlighted.
-VTune applies a global condition of "&gt; 0.05 of clockticks" for a hotspot to be highlighted (in addition) that is omitted here.
+VTune applies a global condition of "&gt; 0.05 of Clockticks" for a hotspot to be highlighted (in addition) that is omitted here.
 Additionally, some microarchitectural issues are covered by multiple nodes not necessary located under the same tree branch. Those tightly-coupled nodes should be highlighted together. To assist tools with that a unique identified like "; $Issue1" is appended to the Threshold column.
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="F63" authorId="0" shapeId="0">
+    <comment ref="C30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -148,8 +131,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Needs tuning post-si
-</t>
+Called 'General Retirement' in VTune</t>
         </r>
       </text>
     </comment>
@@ -158,14 +140,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="438">
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>Core</t>
-  </si>
-  <si>
     <t>Server</t>
   </si>
   <si>
@@ -187,9 +166,6 @@
     <t>SKL</t>
   </si>
   <si>
-    <t>BDX</t>
-  </si>
-  <si>
     <t>BDW/BDW-DE</t>
   </si>
   <si>
@@ -226,9 +202,6 @@
     <t>IDQ_UOPS_NOT_DELIVERED.CORE / SLOTS</t>
   </si>
   <si>
-    <t>SKL ? FRONTEND_RETIRED.LATENCY_GE_8_PS : N/A</t>
-  </si>
-  <si>
     <t>Slots</t>
   </si>
   <si>
@@ -244,9 +217,6 @@
     <t>#Pipeline_Width * #Frontend_Latency_Cycles / SLOTS</t>
   </si>
   <si>
-    <t>SKL ? FRONTEND_RETIRED.LATENCY_GE_16_PS;FRONTEND_RETIRED.LATENCY_GE_32_PS : RS_EVENTS.EMPTY_END</t>
-  </si>
-  <si>
     <t>&gt; 0.15 &amp; P</t>
   </si>
   <si>
@@ -262,9 +232,6 @@
     <t>ICACHE.IFETCH_STALL / CLKS - ITLB_Misses</t>
   </si>
   <si>
-    <t>SKL ? FRONTEND_RETIRED.L2_MISS_PS;FRONTEND_RETIRED.L1I_MISS_PS : N/A</t>
-  </si>
-  <si>
     <t>Clocks</t>
   </si>
   <si>
@@ -280,42 +247,27 @@
     <t>#ITLB_Miss_Cycles / CLKS</t>
   </si>
   <si>
-    <t>SKL ? FRONTEND_RETIRED.STLB_MISS_PS;FRONTEND_RETIRED.ITLB_MISS_PS : ITLB_MISSES.WALK_COMPLETED</t>
-  </si>
-  <si>
     <t>Branch_Resteers</t>
   </si>
   <si>
-    <t>INT_MISC.CLEAR_RESTEER_CYCLES / CLKS</t>
-  </si>
-  <si>
     <t>#Avg_RS_Empty_Period_Clears * ( BR_MISP_RETIRED.ALL_BRANCHES_PS + MACHINE_CLEARS.COUNT + BACLEARS.ANY ) / CLKS</t>
   </si>
   <si>
     <t>BR_MISP_RETIRED.ALL_BRANCHES_PS</t>
   </si>
   <si>
-    <t>&gt; 0.05 &amp; P; $issueB; ~overlap</t>
-  </si>
-  <si>
     <t>DSB_Switches</t>
   </si>
   <si>
     <t>DSB2MITE_SWITCHES.PENALTY_CYCLES / CLKS</t>
   </si>
   <si>
-    <t>SKL ? FRONTEND_RETIRED.DSB_MISS_PS : N/A</t>
-  </si>
-  <si>
     <t>Frontend_Bandwidth</t>
   </si>
   <si>
     <t>Frontend_Bound - Frontend_Latency</t>
   </si>
   <si>
-    <t>SKL ? FRONTEND_RETIRED.LATENCY_GE_2_BUBBLES_GE_1_PS : N/A</t>
-  </si>
-  <si>
     <t>&gt; 0.1 &amp; (IPC &gt; 2.0) &amp; P</t>
   </si>
   <si>
@@ -328,12 +280,6 @@
     <t>( UOPS_ISSUED.ANY - UOPS_RETIRED.RETIRE_SLOTS + #Pipeline_Width * #Recovery_Cycles ) / SLOTS</t>
   </si>
   <si>
-    <t>INT_MISC.RECOVERY_CYCLES</t>
-  </si>
-  <si>
-    <t>&gt; 0.1; $issueB</t>
-  </si>
-  <si>
     <t>Branch_Mispredicts</t>
   </si>
   <si>
@@ -379,12 +325,6 @@
     <t>( #STALLS_MEM_ANY - CYCLE_ACTIVITY.STALLS_L1D_PENDING ) / CLKS</t>
   </si>
   <si>
-    <t>SKL ? MEM_LOAD_RETIRED.L1_HIT_PS;MEM_LOAD_RETIRED.FB_HIT_PS : MEM_LOAD_UOPS_RETIRED.L1_HIT_PS;MEM_LOAD_UOPS_RETIRED.HIT_LFB_PS</t>
-  </si>
-  <si>
-    <t>(&gt; 0.07 &amp; P) | DTLB_Load</t>
-  </si>
-  <si>
     <t>DTLB_Load</t>
   </si>
   <si>
@@ -397,9 +337,6 @@
     <t>( #Mem_STLB_Hit_Cost * DTLB_LOAD_MISSES.STLB_HIT + DTLB_LOAD_MISSES.WALK_DURATION ) / CLKS</t>
   </si>
   <si>
-    <t>SKL ? MEM_INST_RETIRED.STLB_MISS_LOADS_PS : MEM_UOPS_RETIRED.STLB_MISS_LOADS_PS</t>
-  </si>
-  <si>
     <t>L2_Bound</t>
   </si>
   <si>
@@ -409,12 +346,6 @@
     <t>( CYCLE_ACTIVITY.STALLS_L1D_PENDING - CYCLE_ACTIVITY.STALLS_L2_PENDING ) / CLKS</t>
   </si>
   <si>
-    <t>SKL ? MEM_LOAD_RETIRED.L2_HIT_PS : MEM_LOAD_UOPS_RETIRED.L2_HIT_PS</t>
-  </si>
-  <si>
-    <t>&gt; 0.03 &amp; P</t>
-  </si>
-  <si>
     <t>L3_Bound</t>
   </si>
   <si>
@@ -433,9 +364,6 @@
     <t>MEM_Bound</t>
   </si>
   <si>
-    <t>CYCLE_ACTIVITY.STALLS_L3_MISS / CLKS</t>
-  </si>
-  <si>
     <t>(1 - #Mem_L3_Hit_Fraction) * CYCLE_ACTIVITY.STALLS_L2_MISS / CLKS</t>
   </si>
   <si>
@@ -445,36 +373,12 @@
     <t>MEM_Bandwidth</t>
   </si>
   <si>
-    <t>#ORO_L3M_Demand_DRD_C6 / CLKS</t>
-  </si>
-  <si>
-    <t>#ORO_Demand_DRD_C6 / CLKS</t>
-  </si>
-  <si>
     <t>MEM_Latency</t>
   </si>
   <si>
-    <t>( #ORO_L3M_Demand_DRD_C1 - #ORO_L3M_Demand_DRD_C6 ) / CLKS</t>
-  </si>
-  <si>
-    <t>( #ORO_Demand_DRD_C1 - #ORO_Demand_DRD_C6 ) / CLKS</t>
-  </si>
-  <si>
-    <t>Stores_Bound</t>
-  </si>
-  <si>
     <t>EXE_ACTIVITY.BOUND_ON_STORES / CLKS</t>
   </si>
   <si>
-    <t>( RESOURCE_STALLS.SB -  CYCLE_ACTIVITY.STALLS_MEM_ANY ) / CLKS</t>
-  </si>
-  <si>
-    <t>( RESOURCE_STALLS.SB -  #STALLS_MEM_ANY ) / CLKS</t>
-  </si>
-  <si>
-    <t>SKL ? MEM_INST_RETIRED.ALL_STORES_PS : MEM_UOPS_RETIRED.ALL_STORES_PS</t>
-  </si>
-  <si>
     <t>BE/Core</t>
   </si>
   <si>
@@ -496,12 +400,6 @@
     <t>10 * ARITH.DIVIDER_UOPS / CORE_CLKS</t>
   </si>
   <si>
-    <t>SKL ? ARITH.DIVIDER_ACTIVE : HSW/HSX ? ARITH.DIVIDER_UOPS : ARITH.FPU_DIV_ACTIVE</t>
-  </si>
-  <si>
-    <t>CoreClocks</t>
-  </si>
-  <si>
     <t>Ports_Utilization</t>
   </si>
   <si>
@@ -595,9 +493,6 @@
     <t>&gt; 0.05; $issueMS</t>
   </si>
   <si>
-    <t>Info</t>
-  </si>
-  <si>
     <t>IPC</t>
   </si>
   <si>
@@ -610,15 +505,9 @@
     <t>Instructions Per Cycle (per logical thread)</t>
   </si>
   <si>
-    <t>SW_Info</t>
-  </si>
-  <si>
     <t>CPI</t>
   </si>
   <si>
-    <t>1/IPC</t>
-  </si>
-  <si>
     <t>Metric</t>
   </si>
   <si>
@@ -661,9 +550,6 @@
     <t>Metric/1</t>
   </si>
   <si>
-    <t>Rough Estimation of fraction of fetched lines bytes consumed by program instructions</t>
-  </si>
-  <si>
     <t>&lt; 0.5</t>
   </si>
   <si>
@@ -688,29 +574,9 @@
     <t>UOPS_DISPATCHED.THREAD / #Execute_Cycles</t>
   </si>
   <si>
-    <t>Metric/10</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Instruction-Level-Parallelism </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(average number of uops executed when there is at least 1 uop executed)</t>
-    </r>
-  </si>
-  <si>
     <t>GFLOPs</t>
   </si>
   <si>
-    <t>#FLOP_Count / #OneBillion / #DurationTimeInSeconds#</t>
-  </si>
-  <si>
     <t xml:space="preserve">N/A </t>
   </si>
   <si>
@@ -753,9 +619,6 @@
     <t>Kernel_Utilization</t>
   </si>
   <si>
-    <t>CPU_CLK_UNHALTED.REF_TSC:sup / CPU_CLK_UNHALTED.REF_TSC</t>
-  </si>
-  <si>
     <t>Fraction of cycles spent in Kernel mode</t>
   </si>
   <si>
@@ -789,9 +652,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>#DurationTimeInSeconds#</t>
-  </si>
-  <si>
     <t>Run duration time in seconds</t>
   </si>
   <si>
@@ -867,66 +727,18 @@
     <t>min( CPU_CLK_UNHALTED.THREAD , CYCLE_ACTIVITY.CYCLES_NO_DISPATCH )</t>
   </si>
   <si>
-    <t>#ORO_Demand_DRD_C1</t>
-  </si>
-  <si>
-    <t>min( CPU_CLK_UNHALTED.THREAD , OFFCORE_REQUESTS_OUTSTANDING.CYCLES_WITH_DEMAND_DATA_RD )</t>
-  </si>
-  <si>
-    <t>#ORO_Demand_DRD_C6</t>
-  </si>
-  <si>
-    <t>min( CPU_CLK_UNHALTED.THREAD , OFFCORE_REQUESTS_OUTSTANDING.DEMAND_DATA_RD_GE_6 )</t>
-  </si>
-  <si>
-    <t>min( CPU_CLK_UNHALTED.THREAD , OFFCORE_REQUESTS_OUTSTANDING.DEMAND_DATA_RD:c6 )</t>
-  </si>
-  <si>
-    <t>#ORO_L3M_Demand_DRD_C1</t>
-  </si>
-  <si>
     <t>min( CPU_CLK_UNHALTED.THREAD , OFFCORE_REQUESTS_OUTSTANDING.CYCLES_WITH_L3_MISS_DEMAND_DATA_RD )</t>
   </si>
   <si>
-    <t>#ORO_L3M_Demand_DRD_C6</t>
-  </si>
-  <si>
-    <t>min( CPU_CLK_UNHALTED.THREAD , OFFCORE_REQUESTS_OUTSTANDING.L3_MISS_DEMAND_DATA_RD_GE_6 )</t>
-  </si>
-  <si>
     <t>#Few_Uops_Executed_Threshold</t>
   </si>
   <si>
-    <t>EXE_ACTIVITY.2_PORTS_UTIL if ( IPC &gt; 1.25 ) else 0</t>
-  </si>
-  <si>
-    <t>UOPS_EXECUTED.CYCLES_GE_3_UOPS_EXEC if ( IPC &gt; 1.25 ) else UOPS_EXECUTED.CYCLES_GE_2_UOPS_EXEC</t>
-  </si>
-  <si>
-    <t>UOPS_EXECUTED.CORE:c3 if ( IPC &gt; 1.25 ) else UOPS_EXECUTED.CORE:c2</t>
-  </si>
-  <si>
-    <t>UOPS_DISPATCHED.THREAD:c3 if ( IPC &gt; 1.25 ) else UOPS_DISPATCHED.THREAD:c2</t>
-  </si>
-  <si>
     <t>#Backend_Bound_Cycles</t>
   </si>
   <si>
     <t xml:space="preserve">( EXE_ACTIVITY.EXE_BOUND_0_PORTS + EXE_ACTIVITY.1_PORTS_UTIL + #Few_Uops_Executed_Threshold ) + ( CYCLE_ACTIVITY.STALLS_MEM_ANY + EXE_ACTIVITY.BOUND_ON_STORES ) </t>
   </si>
   <si>
-    <t>( CYCLE_ACTIVITY.STALLS_TOTAL + UOPS_EXECUTED.CYCLES_GE_1_UOP_EXEC - #Few_Uops_Executed_Threshold - RS_EVENTS.EMPTY_CYCLES + RESOURCE_STALLS.SB )</t>
-  </si>
-  <si>
-    <t>( #STALLS_TOTAL + (UOPS_EXECUTED.CORE:c1 - #Few_Uops_Executed_Threshold)/2 - RS_EVENTS.EMPTY_CYCLES + RESOURCE_STALLS.SB ) if #SMT_on else ( #STALLS_TOTAL + UOPS_EXECUTED.CORE:c1 - #Few_Uops_Executed_Threshold - RS_EVENTS.EMPTY_CYCLES + RESOURCE_STALLS.SB )</t>
-  </si>
-  <si>
-    <t>( #STALLS_TOTAL + UOPS_EXECUTED.CYCLES_GE_1_UOP_EXEC - #Few_Uops_Executed_Threshold - RS_EVENTS.EMPTY_CYCLES + RESOURCE_STALLS.SB )</t>
-  </si>
-  <si>
-    <t>( #STALLS_TOTAL + UOPS_DISPATCHED.THREAD:c1 - #Few_Uops_Executed_Threshold - RS_EVENTS.EMPTY_CYCLES + RESOURCE_STALLS.SB )</t>
-  </si>
-  <si>
     <t>#Memory_Bound_Fraction</t>
   </si>
   <si>
@@ -1017,9 +829,6 @@
     <t>#MS_Switches_Cost</t>
   </si>
   <si>
-    <t>SKL ? MEM_LOAD_RETIRED.L3_HIT_PS : IVB/IVT/SNB/JKT ? MEM_LOAD_UOPS_RETIRED.LLC_HIT_PS : MEM_LOAD_UOPS_RETIRED.L3_HIT_PS</t>
-  </si>
-  <si>
     <t>( RS_EVENTS.EMPTY_CYCLES - #ITLB_Miss_Cycles ) / RS_EVENTS.EMPTY_END</t>
   </si>
   <si>
@@ -1080,9 +889,6 @@
     <t>References</t>
   </si>
   <si>
-    <t>Intel® Architecture Optimization Reference Manual, Top-Down Analysis Method chapter</t>
-  </si>
-  <si>
     <t>Software Optimizations Become Simple with  Top-Down Analysis Methodology on Intel® Microarchitecture, Code Name Skylake. Ahmad Yasin, Intel Developer Forum 2015, IDF'15.</t>
   </si>
   <si>
@@ -1143,15 +949,9 @@
     <t>This metric estimates how often the CPU was stalled due to loads accesses to L3 cache or contended with a sibling Core.  Avoiding cache misses (i.e. L2 misses/L3 hits) can improve the latency and increase performance.</t>
   </si>
   <si>
-    <t>SKL ? MEM_LOAD_RETIRED.L3_MISS_PS : IVB/IVT/JKT ? MEM_LOAD_UOPS_RETIRED.LLC_MISS_PS : SNB ? MEM_LOAD_UOPS_MISC_RETIRED.LLC_MISS_PS : MEM_LOAD_UOPS_RETIRED.L3_MISS_PS</t>
-  </si>
-  <si>
     <t>This metric estimates how often the CPU was stalled on accesses to external memory (DRAM) by loads. Better caching can improve the latency and increase performance.</t>
   </si>
   <si>
-    <t>This metric estimates cycles fraction where the performance was likely hurt due to approaching bandwidth limits of external main (DRAM).  This metric does not aggregate requests from other threads/cores/sockets (see Uncore counters for that).</t>
-  </si>
-  <si>
     <t>This metric estimates cycles fraction where the performance was likely hurt due to latency from external memory (DRAM).  This metric does not aggregate requests from other threads/cores/sockets (see Uncore counters for that).</t>
   </si>
   <si>
@@ -1167,10 +967,6 @@
     <t>This metric estimates cycles fraction the CPU performance was potentially limited due to Core computation issues (non divider-related).  Two distinct categories can be attributed into this metric: (1) heavy data-dependency among contiguous instructions would manifest in this metric - such cases are often referred to as low Instruction Level Parallelism (ILP). (2) Contention on some hardware execution unit other than Divider. For example, when there are too many multiply operations.</t>
   </si>
   <si>
-    <t xml:space="preserve">This category represents slots fraction utilized by useful work i.e. allocated uops that eventually get retired. Ideally, all pipeline slots would be attributed to the Retiring category.  Retiring of 100% would indicate the maximum 4 uops retired per cycle has been achieved.  Maximizing Retiring typically increases the Instruction-Per-Cycle metric.
-Note that a high Retiring value does not necessary mean there is no room for more performance.  For example, Microcode assists are categorized under Retiring. They hurt performance and can often be avoided. </t>
-  </si>
-  <si>
     <t>This metric represents slots fraction where the CPU was retiring regular uops (ones not originated from the microcode-sequencer). This correlates with total number of instructions used by the program. A uops-per-instruction ratio of 1 should be expected. While this is the most desirable of the top 4 categories, high values does not necessarily mean there no room for performance optimizations.</t>
   </si>
   <si>
@@ -1192,33 +988,6 @@
     <t>MEM_BW_GBs</t>
   </si>
   <si>
-    <t>64 * ( UNC_M_CAS_COUNT.RD + UNC_M_CAS_COUNT.WR ) / #OneMillion / #DurationTimeInSeconds# / 1000</t>
-  </si>
-  <si>
-    <t>64 * ( UNC_ARB_TRK_REQUESTS.ALL + UNC_ARB_COH_TRK_REQUESTS.ALL ) / #OneMillion / #DurationTimeInSeconds# / 1000</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Average external </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Memory Bandwidth Use for reads and writes [GB / sec]</t>
-    </r>
-  </si>
-  <si>
     <t>Per-thread actual clocks when the thread is active</t>
   </si>
   <si>
@@ -1229,9 +998,6 @@
   </si>
   <si>
     <t>Total issue-pipeline slots</t>
-  </si>
-  <si>
-    <t>3. Detect if collection was performed with SMT off/on.</t>
   </si>
   <si>
     <t>Threshold interpretation</t>
@@ -1301,20 +1067,844 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">2.1 A tool needs to group events used by sibling nodes (a subset of same level where they share same parent) should run in the same group, if possible. </t>
-  </si>
-  <si>
     <t>4. Expressions with min( , ) function has to be done per LP count value (before summing up across all LPs).</t>
+  </si>
+  <si>
+    <t>2.1. A tool needs to group events used by sibling nodes (a group of nide at same tree level where they share same parent) in the same group, as much as possible.</t>
+  </si>
+  <si>
+    <t>2.2. A tool can collect just CPU_CLK_UNHALTED.THREAD_ANY when SMT is off, for all nodes that have CountDomain of Slots or CoreClocks.</t>
+  </si>
+  <si>
+    <t>3. A tool has to provide values for Aux entries marked with CountDomain of ExternalParameter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3.1. Specifically, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Detect if collection was performed with SMT off/on and update the #SMT_on flag accordingly.</t>
+    </r>
+  </si>
+  <si>
+    <t>RESOURCE_STALLS.SB / CLKS</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Info.Thread</t>
+  </si>
+  <si>
+    <t>min( 1 , IDQ.MITE_UOPS / ( UPI * 16 * ( ICACHE.HIT + ICACHE.MISSES ) / 4.0 ) )</t>
+  </si>
+  <si>
+    <t>Rough Estimation of fraction of fetched lines bytes that were likely consumed by program instructions</t>
+  </si>
+  <si>
+    <t>1 / IPC</t>
+  </si>
+  <si>
+    <t>Info.Core</t>
+  </si>
+  <si>
+    <t>Info.System</t>
+  </si>
+  <si>
+    <t>#FLOP_Count / #OneBillion / #DurationTimeInSeconds</t>
+  </si>
+  <si>
+    <t>64 * ( UNC_M_CAS_COUNT.RD + UNC_M_CAS_COUNT.WR ) / #OneMillion / #DurationTimeInSeconds / 1000</t>
+  </si>
+  <si>
+    <t>64 * ( UNC_ARB_TRK_REQUESTS.ALL + UNC_ARB_COH_TRK_REQUESTS.ALL ) / #OneMillion / #DurationTimeInSeconds / 1000</t>
+  </si>
+  <si>
+    <t>#DurationTimeInSeconds</t>
+  </si>
+  <si>
+    <t>#Frontend_RS_Empty_Cycles</t>
+  </si>
+  <si>
+    <t>RS_EVENTS.EMPTY_CYCLES if (Frontend_Latency &gt; 0.1) else 0</t>
+  </si>
+  <si>
+    <t>EXE_ACTIVITY.2_PORTS_UTIL if ( IPC &gt; 1.8 ) else 0</t>
+  </si>
+  <si>
+    <t>UOPS_EXECUTED.CYCLES_GE_3_UOPS_EXEC if ( IPC &gt; 1.8 ) else UOPS_EXECUTED.CYCLES_GE_2_UOPS_EXEC</t>
+  </si>
+  <si>
+    <t>UOPS_EXECUTED.CORE:c3 if ( IPC &gt; 1.8 ) else UOPS_EXECUTED.CORE:c2</t>
+  </si>
+  <si>
+    <t>UOPS_DISPATCHED.THREAD:c3 if ( IPC &gt; 1.8 ) else UOPS_DISPATCHED.THREAD:c2</t>
+  </si>
+  <si>
+    <t>( CYCLE_ACTIVITY.STALLS_TOTAL + UOPS_EXECUTED.CYCLES_GE_1_UOP_EXEC - #Few_Uops_Executed_Threshold - #Frontend_RS_Empty_Cycles + RESOURCE_STALLS.SB )</t>
+  </si>
+  <si>
+    <t>( #STALLS_TOTAL + (UOPS_EXECUTED.CORE:c1 - #Few_Uops_Executed_Threshold) / 2 - #Frontend_RS_Empty_Cycles + RESOURCE_STALLS.SB ) if #SMT_on else ( #STALLS_TOTAL + UOPS_EXECUTED.CORE:c1 - #Few_Uops_Executed_Threshold - #Frontend_RS_Empty_Cycles + RESOURCE_STALLS.SB )</t>
+  </si>
+  <si>
+    <t>( #STALLS_TOTAL + UOPS_EXECUTED.CYCLES_GE_1_UOP_EXEC - #Few_Uops_Executed_Threshold - #Frontend_RS_Empty_Cycles + RESOURCE_STALLS.SB )</t>
+  </si>
+  <si>
+    <t>( #STALLS_TOTAL + UOPS_DISPATCHED.THREAD:c1 - #Few_Uops_Executed_Threshold - #Frontend_RS_Empty_Cycles + RESOURCE_STALLS.SB )</t>
+  </si>
+  <si>
+    <t>#SMT_on</t>
+  </si>
+  <si>
+    <t>ExternalParameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This category represents slots fraction utilized by useful work i.e. issued uops that eventually get retired. Ideally, all pipeline slots would be attributed to the Retiring category.  Retiring of 100% would indicate the maximum 4 uops retired per cycle has been achieved.  Maximizing Retiring typically increases the Instruction-Per-Cycle metric. Note that a high Retiring value does not necessary mean there is no room for more performance.  For example, Microcode assists are categorized under Retiring. They hurt performance and can often be avoided. </t>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fixed IFetch_Line_Utilization to use MITE-side approximation [HS*/BD*]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fixed nodes using RS empty when the workload is not Frontend Bound [pre-SKL]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fixed Stores_Bound [pre SKL]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Other fixes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Informative metrics were re-grouped, using the Key of</t>
+    </r>
+  </si>
+  <si>
+    <t>Bug fixes</t>
+  </si>
+  <si>
+    <t>Initial release (SKL support)</t>
+  </si>
+  <si>
+    <t>Intel® Architecture Optimization Reference Manual, Top-Down Analysis Method chapter (Appendix B.1)</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Info.Thread:   Thread specific metrics, e.g. IPC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Info.Core:       Core granularity metrics, e.g. CoreIPC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Info.System:  System metrics, e.g. GFLOPS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tuned Memory_Bound vs. Core_Bound (#Few_Uops_Executed_Threshold) [all models]</t>
+    </r>
+  </si>
+  <si>
+    <t>[Recording]</t>
+  </si>
+  <si>
+    <t>[slides (filter by Yasin)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">---------------------   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For questions:  </t>
+  </si>
+  <si>
+    <t>---------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email perfmon-discuss@lists.01.org      </t>
+  </si>
+  <si>
+    <t>Notices:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMATION IN THIS DOCUMENT IS PROVIDED IN CONNECTION WITH INTEL PRODUCTS. NO LICENSE, EXPRESS OR IMPLIED, BY ESTOPPEL OR OTHERWISE, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO ANY INTELLECTUAL PROPERTY RIGHTS IS GRANTED BY THIS DOCUMENT. EXCEPT AS PROVIDED IN INTEL'S TERMS AND CONDITIONS OF SALE FOR SUCH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCTS, INTEL ASSUMES NO LIABILITY WHATSOEVER AND INTEL DISCLAIMS ANY EXPRESS OR IMPLIED WARRANTY, RELATING TO SALE AND/OR USE OF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTEL PRODUCTS INCLUDING LIABILITY OR WARRANTIES RELATING TO FITNESS FOR A PARTICULAR PURPOSE, MERCHANTABILITY, OR INFRINGEMENT OF ANY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATENT, COPYRIGHT OR OTHER INTELLECTUAL PROPERTY RIGHT. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A "Mission Critical Application" is any application in which failure of the Intel Product could result, directly or indirectly, in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">personal injury or death. SHOULD YOU PURCHASE OR USE INTEL'S PRODUCTS FOR ANY SUCH MISSION CRITICAL APPLICATION, YOU SHALL INDEMNIFY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND HOLD INTEL AND ITS SUBSIDIARIES, SUBCONTRACTORS AND AFFILIATES, AND THE DIRECTORS, OFFICERS, AND EMPLOYEES OF EACH, HARMLESS AGAINST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL CLAIMS COSTS, DAMAGES, AND EXPENSES AND REASONABLE ATTORNEYS' FEES ARISING OUT OF, DIRECTLY OR INDIRECTLY, ANY CLAIM OF PRODUCT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIABILITY, PERSONAL INJURY, OR DEATH ARISING IN ANY WAY OUT OF SUCH MISSION CRITICAL APPLICATION, WHETHER OR NOT INTEL OR ITS SUBCONTRACTOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAS NEGLIGENT IN THE DESIGN, MANUFACTURE, OR WARNING OF THE INTEL PRODUCT OR ANY OF ITS PARTS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel may make changes to specifications and product descriptions at any time, without notice. Designers must not rely on the absence or </t>
+  </si>
+  <si>
+    <t xml:space="preserve">characteristics of any features or instructions marked "reserved" or "undefined". Intel reserves these for future definition and shall have </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no responsibility whatsoever for conflicts or incompatibilities arising from future changes to them. The information here is subject to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">change without notice. Do not finalize a design with this information. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The products described in this document may contain design defects or errors known as errata which may cause the product to deviate from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">published specifications. Current characterized errata are available on request. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact your local Intel sales office or your distributor to obtain the latest specifications and before placing your product order. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copies of documents which have an order number and are referenced in this document, or other Intel literature, may be obtained by calling </t>
+  </si>
+  <si>
+    <t>1-800-548-4725, or go to: http://www.intel.com/design/literature.htm</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Added Revision History and Copyright sheets</t>
+    </r>
+  </si>
+  <si>
+    <t>Copyright � 2016 Intel Corporation. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Also called "Optimization Guide"</t>
+  </si>
+  <si>
+    <t>Intel Confidential</t>
+  </si>
+  <si>
+    <t>BDX</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? FRONTEND_RETIRED.LATENCY_GE_8_PS : N/A</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? FRONTEND_RETIRED.LATENCY_GE_16_PS;FRONTEND_RETIRED.LATENCY_GE_32_PS : RS_EVENTS.EMPTY_END</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? FRONTEND_RETIRED.L2_MISS_PS;FRONTEND_RETIRED.L1I_MISS_PS : N/A</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? FRONTEND_RETIRED.STLB_MISS_PS;FRONTEND_RETIRED.ITLB_MISS_PS : ITLB_MISSES.WALK_COMPLETED</t>
+  </si>
+  <si>
+    <t>( INT_MISC.CLEAR_RESTEER_CYCLES + 10* BACLEARS.ANY ) / CLKS</t>
+  </si>
+  <si>
+    <t>&gt; 0.05 &amp; P; $issueBad; ~overlap</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? FRONTEND_RETIRED.DSB_MISS_PS : N/A</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? FRONTEND_RETIRED.LATENCY_GE_2_BUBBLES_GE_1_PS : N/A</t>
+  </si>
+  <si>
+    <t>&gt; 0.1; $issueBad</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? MEM_LOAD_RETIRED.L1_HIT_PS;MEM_LOAD_RETIRED.FB_HIT_PS : MEM_LOAD_UOPS_RETIRED.L1_HIT_PS;MEM_LOAD_UOPS_RETIRED.HIT_LFB_PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(&gt; 0.1 &amp; P) | DTLB_Load; </t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? MEM_INST_RETIRED.STLB_MISS_LOADS_PS : MEM_UOPS_RETIRED.STLB_MISS_LOADS_PS</t>
+  </si>
+  <si>
+    <t>&gt; 0.1</t>
+  </si>
+  <si>
+    <t>FB_Full</t>
+  </si>
+  <si>
+    <t>Load_Miss_Real_Latency * L1D_PEND_MISS.FB_FULL:c1 / CLKS</t>
+  </si>
+  <si>
+    <t>Load_Miss_Real_Latency * L1D_PEND_MISS.REQUEST_FB_FULL:c1 / CLKS</t>
+  </si>
+  <si>
+    <t>This metric does a *rough estimation* of how often L1D Fill Buffer unavailability limited additional L1D miss memory access requests to proceed. The higher the metric value, the deeper the memory hierarchy level the misses are satisfied from (metric values &gt;1 are valid). Often it hints on approaching bandwidth limits (to L2 cache, L3 cache or external memory).</t>
+  </si>
+  <si>
+    <t>&gt; 0.3; $issueBW; $issueSL</t>
+  </si>
+  <si>
+    <t>(1 if FB_Full &lt; 1.5 else #LOAD_L2_HIT / ( #LOAD_L2_HIT + L1D_PEND_MISS.FB_FULL:c1)) * #L2_Bound_Fraction</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? MEM_LOAD_RETIRED.L2_HIT_PS : MEM_LOAD_UOPS_RETIRED.L2_HIT_PS</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? MEM_LOAD_RETIRED.L3_HIT_PS : IVB/IVT/SNB/JKT ? MEM_LOAD_UOPS_RETIRED.LLC_HIT_PS : MEM_LOAD_UOPS_RETIRED.L3_HIT_PS</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L3_MISS / CLKS + #L2_Bound_Fraction - L2_Bound</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? MEM_LOAD_RETIRED.L3_MISS_PS : IVB/IVT/JKT ? MEM_LOAD_UOPS_RETIRED.LLC_MISS_PS : SNB ? MEM_LOAD_UOPS_MISC_RETIRED.LLC_MISS_PS : MEM_LOAD_UOPS_RETIRED.L3_MISS_PS</t>
+  </si>
+  <si>
+    <t>#ORO_DRD_BW_Cycles / CLKS</t>
+  </si>
+  <si>
+    <t>This metric estimates cycles fraction where the core's performance was likely hurt due to approaching bandwidth limits of external memory (DRAM).  The underlying heuristic assumes that a similar off-core traffic is generated by all IA cores. This metric does not aggregate non-data-read requests by this thread, requests from other IA threads/cores/sockets, or other non-IA devices like GPU; hence the maximum external memory bandwidth limits may or may not be approached when this metric is flagged (see Uncore counters for that).</t>
+  </si>
+  <si>
+    <t>&gt; 0.1 &amp; P; $issueBW</t>
+  </si>
+  <si>
+    <t>#ORO_DRD_Any_Cycles / CLKS - MEM_Bandwidth</t>
+  </si>
+  <si>
+    <t>Store_Bound</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? MEM_INST_RETIRED.ALL_STORES_PS : MEM_UOPS_RETIRED.ALL_STORES_PS</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? ARITH.DIVIDER_ACTIVE : HSW/HSX ? ARITH.DIVIDER_UOPS : ARITH.FPU_DIV_ACTIVE</t>
+  </si>
+  <si>
+    <t>&gt; 1.15</t>
+  </si>
+  <si>
+    <t>Instruction-Level-Parallelism (average number of uops executed when there is at least 1 uop executed)</t>
+  </si>
+  <si>
+    <t>Info.Memory</t>
+  </si>
+  <si>
+    <t>Load_Miss_Real_Latency</t>
+  </si>
+  <si>
+    <t>L1D_PEND_MISS.PENDING / ( MEM_LOAD_RETIRED.L1_MISS_PS + MEM_LOAD_RETIRED.FB_HIT_PS )</t>
+  </si>
+  <si>
+    <t>L1D_PEND_MISS.PENDING / ( MEM_LOAD_UOPS_RETIRED.L1_MISS + MEM_LOAD_UOPS_RETIRED.HIT_LFB_PS )</t>
+  </si>
+  <si>
+    <t>Metric/1000</t>
+  </si>
+  <si>
+    <t>Actual Average Latency for L1 data-cache miss demand loads</t>
+  </si>
+  <si>
+    <t>CoreMetric/1</t>
+  </si>
+  <si>
+    <t>CPU_CLK_UNHALTED.REF_TSC:sup / CPU_CLK_UNHALTED.REF_TSC</t>
+  </si>
+  <si>
+    <t>Average external Memory Bandwidth Use for reads and writes [GB / sec]</t>
+  </si>
+  <si>
+    <t>; $issueBW</t>
+  </si>
+  <si>
+    <t>( &gt; 1.1 | &lt; 0.9 )</t>
+  </si>
+  <si>
+    <t>#L2_Bound_Fraction</t>
+  </si>
+  <si>
+    <t>#ORO_DRD_Any_Cycles</t>
+  </si>
+  <si>
+    <t>min( CPU_CLK_UNHALTED.THREAD , OFFCORE_REQUESTS_OUTSTANDING.CYCLES_WITH_DATA_RD )</t>
+  </si>
+  <si>
+    <t>#ORO_DRD_BW_Cycles</t>
+  </si>
+  <si>
+    <t>min( CPU_CLK_UNHALTED.THREAD , OFFCORE_REQUESTS_OUTSTANDING.ALL_DATA_RD:c4 )</t>
+  </si>
+  <si>
+    <t>min( CPU_CLK_UNHALTED.THREAD , OFFCORE_REQUESTS_OUTSTANDING.ALL_DATA_RD:c6 )</t>
+  </si>
+  <si>
+    <t>#ORO_L3M_Load_Any_Cycles</t>
+  </si>
+  <si>
+    <t>Key fixes</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fixed MEM_Bandwidth/Latency to account for L1/L2 prefetches instead of just demands [all] and Tuned MEM_Bandwidth [BDW onward]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Known</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>issues</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BDW-DE references BDW client UNC_ARB_* events.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No support for L4 cache yet [HSW, BDW, SKL]</t>
+    </r>
+  </si>
+  <si>
+    <t>BDX Model + fixes for Memory metrics</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Metric Descriptions updates</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fixed Branch_Resteers to include BAClears [SKL ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fixed MEM_Bound (and L2_Bound) to account for late prefetches to memory [SKL ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Threshold set for multiple nodes including UPI, MUX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">New models: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BDX, BDW-DE</t>
+    </r>
+  </si>
+  <si>
+    <t>#LOAD_L1_MISS_CLT</t>
+  </si>
+  <si>
+    <t>MEM_LOAD_RETIRED.L2_HIT_PS + MEM_LOAD_RETIRED.L3_HIT_PS + MEM_LOAD_L3_HIT_RETIRED.XSNP_HIT_PS + MEM_LOAD_L3_HIT_RETIRED.XSNP_HITM_PS + MEM_LOAD_L3_HIT_RETIRED.XSNP_MISS_PS</t>
+  </si>
+  <si>
+    <t>MEM_LOAD_UOPS_RETIRED.L2_HIT_PS + MEM_LOAD_UOPS_RETIRED.L3_HIT_PS + MEM_LOAD_UOPS_L3_HIT_RETIRED.XSNP_HIT_PS + MEM_LOAD_UOPS_L3_HIT_RETIRED.XSNP_HITM_PS + MEM_LOAD_UOPS_L3_HIT_RETIRED.XSNP_MISS_PS</t>
+  </si>
+  <si>
+    <t>MEM_LOAD_UOPS_RETIRED.L2_HIT_PS + MEM_LOAD_UOPS_RETIRED.LLC_HIT_PS + MEM_LOAD_UOPS_LLC_HIT_RETIRED.XSNP_HIT_PS + MEM_LOAD_UOPS_LLC_HIT_RETIRED.XSNP_HITM_PS + MEM_LOAD_UOPS_LLC_HIT_RETIRED.XSNP_MISS_PS</t>
+  </si>
+  <si>
+    <t>#LOAD_L1_MISS_NET</t>
+  </si>
+  <si>
+    <t>#LOAD_L1_MISS_CLT + MEM_LOAD_UOPS_L3_MISS_RETIRED.LOCAL_DRAM_PS + MEM_LOAD_UOPS_L3_MISS_RETIRED.REMOTE_DRAM_PS + MEM_LOAD_UOPS_L3_MISS_RETIRED.REMOTE_HITM_PS + MEM_LOAD_UOPS_L3_MISS_RETIRED.REMOTE_FWD_PS</t>
+  </si>
+  <si>
+    <t>#LOAD_L1_MISS_CLT + MEM_LOAD_UOPS_LLC_MISS_RETIRED.LOCAL_DRAM_PS + MEM_LOAD_UOPS_LLC_MISS_RETIRED.REMOTE_DRAM_PS + MEM_LOAD_UOPS_LLC_MISS_RETIRED.REMOTE_HITM_PS + MEM_LOAD_UOPS_LLC_MISS_RETIRED.REMOTE_FWD_PS</t>
+  </si>
+  <si>
+    <t>#LOAD_L2_HIT</t>
+  </si>
+  <si>
+    <t>MEM_LOAD_RETIRED.L2_HIT_PS * ( 1 + MEM_LOAD_RETIRED.FB_HIT_PS / #LOAD_L1_MISS_NET )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1407,13 +1997,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
       <name val="Calibri"/>
@@ -1435,8 +2018,83 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Intel Clear"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Intel Clear"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Intel Clear"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1469,12 +2127,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1497,8 +2149,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1543,12 +2231,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1586,22 +2283,11 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1609,58 +2295,122 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="22" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="25" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1684,19 +2434,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>14883</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>532144</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>132644</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1709,8 +2459,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="647700" y="586383"/>
-          <a:ext cx="9439276" cy="5309593"/>
+          <a:off x="609601" y="952501"/>
+          <a:ext cx="10057143" cy="5657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2026,2350 +2776,2623 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="66" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="5.7109375" style="38" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="5.7109375" style="39" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="5.7109375" style="38" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="5.7109375" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="5.7109375" style="33" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="5.7109375" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="5.7109375" style="32" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="5.7109375" style="27" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="5.7109375" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="5.7109375" style="32" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="33.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="27" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="6.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="36.28515625" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="45" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="46">
-        <v>3.01</v>
-      </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="58">
+        <v>3.1</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="61"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="G2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="48"/>
-    </row>
-    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="35" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="42"/>
+    </row>
+    <row r="3" spans="1:18" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="54"/>
-    </row>
-    <row r="3" spans="1:18" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="G3" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="I3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="K3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="M3" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="P3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="O3" s="8" t="s">
+      <c r="Q3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="R3" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="O4" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="P4" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="P5" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="30"/>
+      <c r="N6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="P6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="14" t="s">
+      <c r="Q6" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="R6" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="14"/>
       <c r="D7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="E7" s="25"/>
       <c r="F7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="35"/>
+        <v>33</v>
+      </c>
+      <c r="G7" s="30"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="35"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="35"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="35"/>
+      <c r="M7" s="30"/>
       <c r="N7" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>40</v>
+        <v>371</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="14"/>
       <c r="D8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="35"/>
+        <v>35</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="G8" s="30"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="35"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="35"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="14"/>
-      <c r="M8" s="35"/>
+      <c r="M8" s="30"/>
       <c r="N8" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>45</v>
+        <v>256</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="E9" s="25"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="35"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="35"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="35"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="35"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>48</v>
+        <v>374</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="E10" s="12"/>
+      <c r="D10" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="25"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="35"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="35"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="35"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="35"/>
+      <c r="M10" s="30"/>
       <c r="N10" s="14" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="12"/>
+      <c r="C11" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="25"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="35"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="35"/>
+      <c r="I11" s="30"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="35"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="35"/>
+      <c r="M11" s="30"/>
       <c r="N11" s="10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>23</v>
+        <v>375</v>
+      </c>
+      <c r="P11" s="69" t="s">
+        <v>20</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C12" s="19"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="36"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="36"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="14"/>
-      <c r="M12" s="36"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>23</v>
+        <v>45</v>
+      </c>
+      <c r="P12" s="69" t="s">
+        <v>20</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>57</v>
+        <v>260</v>
+      </c>
+      <c r="R12" s="39" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="14" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="12"/>
-      <c r="G13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="M13" s="35"/>
+      <c r="E13" s="25"/>
+      <c r="G13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="M13" s="30"/>
       <c r="N13" s="14" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="P13" s="69" t="s">
+        <v>20</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="E14" s="25"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="35"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="35"/>
+      <c r="I14" s="30"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="35"/>
+      <c r="K14" s="30"/>
       <c r="L14" s="14"/>
-      <c r="M14" s="35"/>
+      <c r="M14" s="30"/>
       <c r="N14" s="14" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="P14" s="69" t="s">
+        <v>20</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="E15" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="35"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="35"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="35"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="35"/>
+      <c r="M15" s="30"/>
       <c r="N15" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>23</v>
+        <v>53</v>
+      </c>
+      <c r="P15" s="69" t="s">
+        <v>20</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="E16" s="25"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="35"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="35"/>
+      <c r="I16" s="30"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="35"/>
+      <c r="K16" s="30"/>
       <c r="L16" s="14"/>
-      <c r="M16" s="35"/>
+      <c r="M16" s="30"/>
       <c r="N16" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="P16" s="69" t="s">
+        <v>20</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="14"/>
       <c r="D17" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="E17" s="25"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="35"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="35"/>
+        <v>59</v>
+      </c>
+      <c r="I17" s="30"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="35"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M17" s="35"/>
+        <v>60</v>
+      </c>
+      <c r="M17" s="30"/>
       <c r="N17" s="10" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>73</v>
+        <v>377</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>74</v>
+        <v>265</v>
+      </c>
+      <c r="R17" s="39" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="22" t="s">
-        <v>75</v>
+      <c r="E18" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="35"/>
+        <v>62</v>
+      </c>
+      <c r="G18" s="30"/>
       <c r="H18" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="35"/>
+        <v>63</v>
+      </c>
+      <c r="I18" s="30"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="35"/>
+      <c r="K18" s="30"/>
       <c r="L18" s="14"/>
-      <c r="M18" s="35"/>
+      <c r="M18" s="30"/>
       <c r="N18" s="14" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="R18" s="39" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="72" t="s">
+        <v>381</v>
+      </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="35"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="35"/>
+        <v>382</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="K19" s="30"/>
       <c r="L19" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>83</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="M19" s="30"/>
       <c r="P19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="R19" s="14" t="s">
-        <v>84</v>
+        <v>30</v>
+      </c>
+      <c r="Q19" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="R19" s="39" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="35"/>
+      <c r="D20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="G20" s="30"/>
       <c r="H20" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I20" s="35"/>
+        <v>66</v>
+      </c>
+      <c r="I20" s="30"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="35"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="30"/>
       <c r="N20" s="10" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>282</v>
+        <v>387</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="R20" s="10" t="s">
-        <v>89</v>
+        <v>267</v>
+      </c>
+      <c r="R20" s="43" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="12"/>
+      <c r="D21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="25"/>
       <c r="F21" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="35"/>
+        <v>69</v>
+      </c>
+      <c r="G21" s="30"/>
       <c r="H21" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="35"/>
+        <v>70</v>
+      </c>
+      <c r="I21" s="30"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="35"/>
+      <c r="K21" s="30"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="35"/>
+      <c r="M21" s="30"/>
       <c r="N21" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>324</v>
+        <v>71</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>388</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="35"/>
+      <c r="D22" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="30"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="35"/>
+      <c r="K22" s="30"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="35"/>
+      <c r="M22" s="30"/>
       <c r="N22" s="10" t="s">
-        <v>96</v>
+        <v>75</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>390</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="35"/>
+      <c r="E23" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="35"/>
+      <c r="I23" s="30"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="35"/>
+      <c r="K23" s="30"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="10" t="s">
-        <v>99</v>
+      <c r="M23" s="30"/>
+      <c r="N23" s="39" t="s">
+        <v>391</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q23" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="R23" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="R23" s="39" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="74" t="s">
+        <v>395</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="D27" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="30"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="P27" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="D28" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P30" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="14" t="s">
+      <c r="K31" s="30"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O31" s="20"/>
+      <c r="P31" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="D26" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="K26" s="35"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="P26" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="D27" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="P27" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q27" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="R27" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q28" s="43" t="s">
-        <v>332</v>
-      </c>
-      <c r="R28" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="P29" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q29" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="R29" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="O30" s="20"/>
-      <c r="P30" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q30" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="R30" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="K31" s="35"/>
-      <c r="L31" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="M31" s="35"/>
-      <c r="N31" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="O31" s="20"/>
-      <c r="P31" s="27" t="s">
-        <v>129</v>
-      </c>
       <c r="Q31" s="10" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="R31" s="10" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>134</v>
+        <v>90</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>102</v>
       </c>
       <c r="F32" s="14"/>
-      <c r="G32" s="35"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="I32" s="35"/>
+        <v>103</v>
+      </c>
+      <c r="I32" s="30"/>
       <c r="J32" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="K32" s="35"/>
-      <c r="L32" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="M32" s="35"/>
+        <v>100</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="M32" s="30"/>
       <c r="N32" s="20" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="O32" s="20"/>
-      <c r="P32" s="27" t="s">
-        <v>129</v>
+      <c r="P32" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="E33" s="75" t="s">
+        <v>106</v>
+      </c>
       <c r="F33" s="14"/>
-      <c r="G33" s="35"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="I33" s="35"/>
+        <v>107</v>
+      </c>
+      <c r="I33" s="30"/>
       <c r="J33" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="K33" s="35"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="P33" s="27" t="s">
-        <v>129</v>
+        <v>100</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="M33" s="30"/>
+      <c r="N33" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="O33" s="20"/>
+      <c r="P33" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="25"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="35"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K34" s="30"/>
       <c r="L34" s="14"/>
-      <c r="M34" s="35"/>
+      <c r="M34" s="30"/>
       <c r="N34" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="O34" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="P34" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q34" s="14" t="s">
-        <v>338</v>
+        <v>111</v>
+      </c>
+      <c r="P34" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="25"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="35"/>
+      <c r="G35" s="30"/>
       <c r="H35" s="14"/>
-      <c r="I35" s="35"/>
+      <c r="I35" s="30"/>
       <c r="J35" s="14"/>
-      <c r="K35" s="35"/>
+      <c r="K35" s="30"/>
       <c r="L35" s="14"/>
-      <c r="M35" s="35"/>
+      <c r="M35" s="30"/>
       <c r="N35" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="P35" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q35" s="29" t="s">
-        <v>149</v>
+        <v>114</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P35" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="12"/>
+        <v>299</v>
+      </c>
+      <c r="E36" s="25"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="35"/>
+      <c r="G36" s="30"/>
       <c r="H36" s="14"/>
-      <c r="I36" s="35"/>
+      <c r="I36" s="30"/>
       <c r="J36" s="14"/>
-      <c r="K36" s="35"/>
+      <c r="K36" s="30"/>
       <c r="L36" s="14"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="10" t="s">
-        <v>152</v>
-      </c>
+      <c r="M36" s="30"/>
       <c r="P36" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q36" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="P37" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q37" s="29" t="s">
-        <v>158</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="76"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q37" s="24" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>145</v>
+        <v>301</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E38" s="12"/>
+        <v>128</v>
+      </c>
+      <c r="E38" s="25"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="35"/>
+      <c r="G38" s="30"/>
       <c r="H38" s="14"/>
-      <c r="I38" s="35"/>
+      <c r="I38" s="30"/>
       <c r="J38" s="14"/>
-      <c r="K38" s="35"/>
+      <c r="K38" s="30"/>
       <c r="L38" s="14"/>
-      <c r="M38" s="35"/>
+      <c r="M38" s="30"/>
       <c r="N38" s="10" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="P38" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q38" s="29" t="s">
-        <v>162</v>
+        <v>130</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="R38" s="39" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>145</v>
+        <v>301</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E39" s="12"/>
+        <v>132</v>
+      </c>
+      <c r="E39" s="25"/>
       <c r="F39" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G39" s="35"/>
+        <v>133</v>
+      </c>
+      <c r="G39" s="30"/>
       <c r="H39" s="14"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="35"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="K39" s="30"/>
       <c r="L39" s="14"/>
-      <c r="M39" s="35"/>
+      <c r="M39" s="30"/>
       <c r="N39" s="10" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="P39" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q39" s="29" t="s">
-        <v>167</v>
+        <v>135</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>303</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>145</v>
+        <v>301</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E40" s="12"/>
+        <v>137</v>
+      </c>
+      <c r="E40" s="25"/>
       <c r="F40" s="14"/>
-      <c r="G40" s="35"/>
+      <c r="G40" s="30"/>
       <c r="H40" s="14"/>
-      <c r="I40" s="35"/>
+      <c r="I40" s="30"/>
       <c r="J40" s="14"/>
-      <c r="K40" s="35"/>
+      <c r="K40" s="30"/>
       <c r="L40" s="14"/>
-      <c r="M40" s="35"/>
+      <c r="M40" s="30"/>
       <c r="N40" s="10" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="P40" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q40" s="29" t="s">
-        <v>171</v>
+        <v>135</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>145</v>
+        <v>301</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E41" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="E41" s="25"/>
       <c r="F41" s="14"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="I41" s="35"/>
-      <c r="J41" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="K41" s="35"/>
-      <c r="L41" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="M41" s="35"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="30"/>
       <c r="N41" s="10" t="s">
-        <v>175</v>
+        <v>304</v>
       </c>
       <c r="P41" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q41" s="29" t="s">
-        <v>177</v>
+        <v>122</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>150</v>
+        <v>301</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
+        <v>164</v>
+      </c>
+      <c r="E42" s="25"/>
       <c r="F42" s="14"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="I42" s="35"/>
-      <c r="J42" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="K42" s="35"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="30"/>
       <c r="L42" s="14"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="14" t="s">
-        <v>179</v>
+      <c r="M42" s="30"/>
+      <c r="N42" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="P42" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q42" s="29" t="s">
-        <v>182</v>
+        <v>166</v>
+      </c>
+      <c r="Q42" s="10" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>150</v>
+      <c r="A43" s="43" t="s">
+        <v>301</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E43" s="12"/>
+        <v>214</v>
+      </c>
+      <c r="E43" s="25"/>
       <c r="F43" s="14"/>
-      <c r="G43" s="35"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="14"/>
-      <c r="I43" s="35"/>
+      <c r="I43" s="30"/>
       <c r="J43" s="14"/>
-      <c r="K43" s="35"/>
+      <c r="K43" s="30"/>
       <c r="L43" s="14"/>
-      <c r="M43" s="35"/>
+      <c r="M43" s="30"/>
       <c r="N43" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="P43" s="14" t="s">
-        <v>181</v>
+        <v>215</v>
+      </c>
+      <c r="P43" s="69" t="s">
+        <v>166</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="P44" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q44" s="10" t="s">
-        <v>189</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="76"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q44" s="24" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" s="30"/>
+      <c r="J45" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K45" s="30"/>
+      <c r="L45" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="M45" s="30"/>
+      <c r="N45" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="P45" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="P46" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="E47" s="78"/>
+      <c r="F47" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G47" s="44"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="M47" s="44"/>
+      <c r="N47" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="P47" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q47" s="24" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="76"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q48" s="24" t="s">
         <v>150</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="P45" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q45" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="P46" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q46" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="N47" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="P47" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q47" s="29" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="P48" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q48" s="10" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="I49" s="30"/>
+      <c r="J49" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="35"/>
+      <c r="K49" s="30"/>
       <c r="L49" s="14"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="10" t="s">
-        <v>201</v>
+      <c r="M49" s="30"/>
+      <c r="N49" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="P49" s="14" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="Q49" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>145</v>
+        <v>306</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
+        <v>151</v>
+      </c>
+      <c r="E50" s="25"/>
       <c r="F50" s="14"/>
-      <c r="G50" s="35"/>
+      <c r="G50" s="30"/>
       <c r="H50" s="14"/>
-      <c r="I50" s="35"/>
+      <c r="I50" s="30"/>
       <c r="J50" s="14"/>
-      <c r="K50" s="35"/>
+      <c r="K50" s="30"/>
       <c r="L50" s="14"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="14" t="s">
-        <v>204</v>
+      <c r="M50" s="30"/>
+      <c r="N50" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="P50" s="14" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>344</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>150</v>
+        <v>306</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
+        <v>155</v>
+      </c>
+      <c r="E51" s="25"/>
       <c r="F51" s="14"/>
-      <c r="G51" s="35"/>
+      <c r="G51" s="30"/>
       <c r="H51" s="14"/>
-      <c r="I51" s="35"/>
+      <c r="I51" s="30"/>
       <c r="J51" s="14"/>
-      <c r="K51" s="35"/>
+      <c r="K51" s="30"/>
       <c r="L51" s="14"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="P51" s="14" t="s">
-        <v>202</v>
+      <c r="M51" s="30"/>
+      <c r="N51" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="P51" s="43" t="s">
+        <v>406</v>
       </c>
       <c r="Q51" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="R51" s="10" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
+        <v>158</v>
+      </c>
+      <c r="E52" s="25"/>
       <c r="F52" s="14"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="I52" s="35"/>
-      <c r="J52" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="K52" s="35"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="30"/>
       <c r="L52" s="14"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="14" t="s">
-        <v>212</v>
+      <c r="M52" s="30"/>
+      <c r="N52" s="10" t="s">
+        <v>407</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q52" s="29" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="Q52" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="R52" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
+        <v>281</v>
+      </c>
+      <c r="E53" s="25"/>
       <c r="F53" s="14"/>
-      <c r="G53" s="35"/>
+      <c r="G53" s="30"/>
       <c r="H53" s="14"/>
-      <c r="I53" s="35"/>
+      <c r="I53" s="30"/>
       <c r="J53" s="14"/>
-      <c r="K53" s="35"/>
+      <c r="K53" s="30"/>
       <c r="L53" s="14"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="14" t="s">
-        <v>215</v>
+      <c r="M53" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q53" s="29"/>
-    </row>
-    <row r="54" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="R53" s="39" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="G54" s="35"/>
-      <c r="H54" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="I54" s="35"/>
-      <c r="J54" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="K54" s="35"/>
-      <c r="L54" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="M54" s="35"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="30"/>
       <c r="N54" s="14" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="P54" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q54" s="29"/>
+        <v>166</v>
+      </c>
+      <c r="Q54" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="R54" s="10" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="55" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G55" s="35"/>
-      <c r="H55" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="I55" s="35"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="30"/>
       <c r="J55" s="14"/>
-      <c r="K55" s="35"/>
+      <c r="K55" s="30"/>
       <c r="L55" s="14"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="14" t="s">
-        <v>223</v>
+      <c r="M55" s="30"/>
+      <c r="N55" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="P55" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q55" s="29"/>
-    </row>
-    <row r="56" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="R55" s="39" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>224</v>
+        <v>299</v>
       </c>
       <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+      <c r="E56" s="77"/>
       <c r="F56" s="14"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I56" s="35"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="30"/>
       <c r="J56" s="14"/>
-      <c r="K56" s="35"/>
+      <c r="K56" s="30"/>
       <c r="L56" s="14"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="14" t="s">
-        <v>225</v>
-      </c>
+      <c r="M56" s="30"/>
+      <c r="N56" s="14"/>
       <c r="P56" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q56" s="29"/>
+        <v>300</v>
+      </c>
     </row>
     <row r="57" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
+      <c r="E57" s="77"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="35"/>
+      <c r="G57" s="30"/>
       <c r="H57" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I57" s="35"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="M57" s="35"/>
+        <v>174</v>
+      </c>
+      <c r="I57" s="30"/>
+      <c r="J57" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K57" s="30"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="30"/>
       <c r="N57" s="14" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="P57" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q57" s="29"/>
-    </row>
-    <row r="58" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="Q57" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="I58" s="35"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="30"/>
       <c r="J58" s="14"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="M58" s="35"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="30"/>
       <c r="N58" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="P58" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q58" s="29"/>
-    </row>
-    <row r="59" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="P58" s="69" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="35"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G59" s="30"/>
+      <c r="H59" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I59" s="30"/>
+      <c r="J59" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="K59" s="30"/>
+      <c r="L59" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M59" s="30"/>
       <c r="N59" s="14" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="P59" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q59" s="29"/>
-    </row>
-    <row r="60" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="G60" s="35"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="P60" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q60" s="29"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="D60" s="43"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="81"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="P60" s="43" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="61" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="35"/>
+        <v>100</v>
+      </c>
+      <c r="G61" s="30"/>
+      <c r="H61" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="I61" s="30"/>
       <c r="J61" s="14"/>
-      <c r="K61" s="35"/>
+      <c r="K61" s="30"/>
       <c r="L61" s="14"/>
-      <c r="M61" s="35"/>
+      <c r="M61" s="30"/>
       <c r="N61" s="14" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="P61" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q61" s="29"/>
-    </row>
-    <row r="62" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="Q61" s="24"/>
+    </row>
+    <row r="62" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>239</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C62" s="10"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="G62" s="35"/>
+        <v>100</v>
+      </c>
+      <c r="G62" s="30"/>
       <c r="H62" s="14"/>
-      <c r="I62" s="35"/>
+      <c r="I62" s="30"/>
       <c r="J62" s="14"/>
-      <c r="K62" s="35"/>
+      <c r="K62" s="30"/>
       <c r="L62" s="14"/>
-      <c r="M62" s="35"/>
+      <c r="M62" s="30"/>
       <c r="N62" s="14" t="s">
-        <v>128</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="O62" s="10"/>
       <c r="P62" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q62" s="29"/>
-    </row>
-    <row r="63" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="10"/>
+    </row>
+    <row r="63" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="G63" s="35"/>
+        <v>187</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="30"/>
       <c r="H63" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="I63" s="35"/>
-      <c r="J63" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="K63" s="36"/>
-      <c r="L63" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="M63" s="36"/>
-      <c r="N63" s="10" t="s">
-        <v>245</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I63" s="30"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="O63" s="10"/>
       <c r="P63" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q63" s="29"/>
+        <v>166</v>
+      </c>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="10"/>
     </row>
     <row r="64" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I64" s="30"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="M64" s="30"/>
+      <c r="N64" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="P64" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q64" s="24"/>
+    </row>
+    <row r="65" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I65" s="30"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="M65" s="30"/>
+      <c r="N65" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="P65" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q65" s="24"/>
+    </row>
+    <row r="66" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="D66" s="14"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="P66" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="I67" s="30"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="43" t="s">
+        <v>416</v>
+      </c>
+      <c r="P67" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="D68" s="14"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G68" s="30"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P68" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="G69" s="81"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="81"/>
+      <c r="J69" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="K69" s="81"/>
+      <c r="L69" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="M69" s="81"/>
+      <c r="N69" s="43"/>
+      <c r="P69" s="43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="D70" s="14"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="81" t="s">
+        <v>434</v>
+      </c>
+      <c r="J70" s="43"/>
+      <c r="K70" s="81" t="s">
+        <v>435</v>
+      </c>
+      <c r="L70" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="M70" s="81"/>
+      <c r="N70" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="O70" s="39"/>
+      <c r="P70" s="43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="D71" s="14"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="G71" s="81"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="81"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="81"/>
+      <c r="L71" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="M71" s="81"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="G72" s="30"/>
+      <c r="H72" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="I72" s="30"/>
+      <c r="J72" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="K72" s="31"/>
+      <c r="L72" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="M72" s="31"/>
+      <c r="N72" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="O72" s="10"/>
+      <c r="P72" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+    </row>
+    <row r="73" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E73" s="25"/>
+      <c r="F73" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G73" s="30"/>
+      <c r="H73" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="I73" s="30"/>
+      <c r="J73" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K73" s="30"/>
+      <c r="L73" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="M73" s="30"/>
+      <c r="N73" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="P73" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E74" s="25"/>
+      <c r="F74" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G74" s="30"/>
+      <c r="H74" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="I74" s="30"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="P74" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" s="30"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K75" s="30"/>
+      <c r="L75" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="M75" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="N75" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="P75" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="P76" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="G64" s="35"/>
-      <c r="H64" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="I64" s="35"/>
-      <c r="J64" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="K64" s="35"/>
-      <c r="L64" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="M64" s="35"/>
-      <c r="N64" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="P64" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="G65" s="35"/>
-      <c r="H65" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="I65" s="35"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="P65" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G66" s="35"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="K66" s="35"/>
-      <c r="L66" s="55" t="s">
-        <v>259</v>
-      </c>
-      <c r="M66" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="N66" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="P66" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="P67" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G68" s="35"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="K68" s="35"/>
-      <c r="L68" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="M68" s="35"/>
-      <c r="N68" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="P68" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="P69" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="P70" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q70" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="30">
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G77" s="30"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="K77" s="30"/>
+      <c r="L77" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="M77" s="30"/>
+      <c r="N77" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="P77" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" s="25"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="P78" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E79" s="25"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="30"/>
+      <c r="N79" s="25">
         <v>4</v>
       </c>
-      <c r="P71" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G72" s="35"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="30">
+      <c r="P79" s="69" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G80" s="30"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="25">
         <v>7</v>
       </c>
-      <c r="P72" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="30">
+      <c r="P80" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="25">
         <v>7</v>
       </c>
-      <c r="P73" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="14">
+      <c r="P81" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E82" s="25"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="14">
         <v>2</v>
       </c>
-      <c r="K74" s="35"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="30">
+      <c r="K82" s="30"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="25">
         <v>3</v>
       </c>
-      <c r="P74" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="31">
+      <c r="P82" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E83" s="25"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="26">
         <v>1000000</v>
       </c>
-      <c r="P75" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="31">
+      <c r="P83" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" s="25"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="26">
         <v>1000000000</v>
       </c>
-      <c r="P76" s="14" t="s">
-        <v>270</v>
-      </c>
+      <c r="P84" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E85" s="25"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="30"/>
+      <c r="N85" s="25"/>
+      <c r="P85" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E86" s="25"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="30"/>
+      <c r="P86" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:T76"/>
+  <autoFilter ref="A3:R86"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4378,51 +5401,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>304</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="55" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" display="Intel® Architecture Optimization Reference Manual, Top-Down Analysis Method chapter"/>
+    <hyperlink ref="C7" r:id="rId2" display="http://intelstudios.edgesuite.net/idf/2015/sf/aep/ARCS002/ARCS002.html"/>
+    <hyperlink ref="D7" r:id="rId3" display="http://www.intel.com/idfsessionsSF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4432,138 +5473,488 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="C5" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
-        <v>296</v>
+      <c r="A10" s="38" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="57" t="s">
-        <v>298</v>
+      <c r="C12" s="38" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="57" t="s">
-        <v>352</v>
+      <c r="C13" s="38" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="57" t="s">
-        <v>351</v>
+      <c r="C14" s="38" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>299</v>
+      <c r="C16" s="39" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="57" t="s">
-        <v>347</v>
+      <c r="B17" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="57" t="s">
-        <v>356</v>
+      <c r="C18" s="39" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="38" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>300</v>
+      <c r="C20" s="38" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>301</v>
+      <c r="B21" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>349</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="56" t="s">
-        <v>348</v>
+      <c r="C23" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="56" t="s">
-        <v>354</v>
+      <c r="B24" s="37" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="56" t="s">
-        <v>353</v>
+      <c r="C25" s="37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="37" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="124.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="48">
+        <v>3.01</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="50">
+        <v>3.02</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="46"/>
+      <c r="B4" s="45" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="45" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="45" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="45" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="45" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="84">
+        <v>3.1</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="82"/>
+      <c r="B14" s="83" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="82"/>
+      <c r="B15" s="83" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="82"/>
+      <c r="B16" s="85" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="82"/>
+      <c r="B17" s="85" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="82"/>
+      <c r="B18" s="85" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="82"/>
+      <c r="B19" s="85" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="82"/>
+      <c r="B20" s="85" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="82"/>
+      <c r="B21" s="83" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="82"/>
+      <c r="B22" s="85" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="82"/>
+      <c r="B23" s="85" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="53" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="53" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="53" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="52"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="53" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="53" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="52"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="53" t="s">
+        <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>